--- a/archivosDefault/LM.xlsx
+++ b/archivosDefault/LM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fboz\Desktop\02 - Ingeniería de generación fotovoltaica\02 - Documentación generada\0202 - Listado de materiales y equipos\BASF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fboz\Desktop\generadorDeProyectos\archivosDefault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2CF21-AA31-4E64-A575-F11B6649AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C54307-0257-4D80-A2AA-1887469707E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5730" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0A7AC39-8471-4F9C-83D3-27EFA39EA1BE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D0A7AC39-8471-4F9C-83D3-27EFA39EA1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Carátula" sheetId="1" r:id="rId1"/>
@@ -29,127 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>fboz</author>
-  </authors>
-  <commentList>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{18464FEF-4FE3-4B3F-B8C0-97816AA67AF6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fboz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-290,55 m se redondea a 300 m
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{758B6010-012F-44BE-BA51-9D3544624117}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fboz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 290,5 se redondea a 300 m 
-- 189,9 m se redondea a 200 m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{70FDB42B-ACEC-48CC-8D89-9641EFBF702F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fboz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-163,4 m (pero se reutilizan los cables actuales por lo tanto 44,2 m no se deben cotizar) se redondea a 200 m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{E369434D-AE18-4AFB-8411-E71D85FFFC6E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fboz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-88,4 m se redondea a 100 m</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>DOC. N°:</t>
   </si>
@@ -307,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,19 +311,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Bahnschrift Light"/>
@@ -1031,13 +903,13 @@
     <xf numFmtId="12" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1874,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628930B-8D02-4543-A186-798CC476F41A}">
   <dimension ref="B1:AO135"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57:AG58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,8 +3998,9 @@
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
       <c r="O55" s="27"/>
-      <c r="P55" s="70" t="s">
-        <v>41</v>
+      <c r="P55" s="70" t="str">
+        <f>F3</f>
+        <v>Listado de materiales</v>
       </c>
       <c r="Q55" s="71"/>
       <c r="R55" s="71"/>
@@ -4472,14 +4345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F05E9F-F4F5-4FF1-ABE5-16366A67BCEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F05E9F-F4F5-4FF1-ABE5-16366A67BCEB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,14 +4377,18 @@
       <c r="D1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="125"/>
+      <c r="E1" s="125">
+        <f>Carátula!Q57</f>
+        <v>0</v>
+      </c>
       <c r="F1" s="126"/>
       <c r="G1" s="127"/>
       <c r="H1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="110" t="s">
-        <v>5</v>
+      <c r="I1" s="110" t="str">
+        <f>Carátula!AI57</f>
+        <v>B</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4554,8 +4431,9 @@
       <c r="D5" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="125" t="s">
-        <v>41</v>
+      <c r="E5" s="125" t="str">
+        <f>Carátula!P55</f>
+        <v>Listado de materiales</v>
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="127"/>
@@ -4965,6 +4843,5 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>